--- a/PLANILHA.xlsx
+++ b/PLANILHA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NATHAN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b48a3a89ec7ce938/ANTIGOS/Documentos/GitHub/APsycho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EC562ED-EEAE-4877-9A89-DA6737C793AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EC562ED-EEAE-4877-9A89-DA6737C793AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD9DCB8-376A-4909-855B-1E4E443D503C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{04D1EC20-43F3-4B82-A2A6-08BCA135C2EB}"/>
+    <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11760" xr2:uid="{04D1EC20-43F3-4B82-A2A6-08BCA135C2EB}"/>
   </bookViews>
   <sheets>
     <sheet name="PLANILHA FINAL 1" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +821,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1119,7 +1127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1162,11 +1170,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1196,6 +1206,7 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
@@ -1542,7 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E69AE1-9632-4258-B245-D4F3E805F390}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1552,7 +1565,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2647,6 +2660,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FE4ABE7C-EBE6-4921-9354-5FE04488589B}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/PLANILHA.xlsx
+++ b/PLANILHA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b48a3a89ec7ce938/ANTIGOS/Documentos/GitHub/APsycho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0EC562ED-EEAE-4877-9A89-DA6737C793AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD9DCB8-376A-4909-855B-1E4E443D503C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0EC562ED-EEAE-4877-9A89-DA6737C793AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47043A9-00FF-4A34-B5F1-C69EB214E46B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2220" windowWidth="20730" windowHeight="11760" xr2:uid="{04D1EC20-43F3-4B82-A2A6-08BCA135C2EB}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:A220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2662,6 +2662,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{FE4ABE7C-EBE6-4921-9354-5FE04488589B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{87DE86E4-0A0E-42E3-88F8-E66D4E51EED0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PLANILHA.xlsx
+++ b/PLANILHA.xlsx
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E69AE1-9632-4258-B245-D4F3E805F390}">
   <dimension ref="A1:A220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
